--- a/ch3/stat_104102.xlsx
+++ b/ch3/stat_104102.xlsx
@@ -19,39 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
   </si>
   <si>
     <t>계</t>
@@ -173,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +156,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +443,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -484,40 +457,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="B1" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2016</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>49540</v>
@@ -552,7 +525,7 @@
     </row>
     <row r="3" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>10201</v>
@@ -587,7 +560,7 @@
     </row>
     <row r="4" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>3565</v>
@@ -622,7 +595,7 @@
     </row>
     <row r="5" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>2493</v>
@@ -657,7 +630,7 @@
     </row>
     <row r="6" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>2693</v>
@@ -692,7 +665,7 @@
     </row>
     <row r="7" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1423</v>
@@ -727,7 +700,7 @@
     </row>
     <row r="8" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1481</v>
@@ -762,7 +735,7 @@
     </row>
     <row r="9" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>1112</v>
@@ -797,19 +770,19 @@
     </row>
     <row r="10" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <v>113</v>
@@ -832,7 +805,7 @@
     </row>
     <row r="11" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>11292</v>
@@ -867,7 +840,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>1509</v>
@@ -902,7 +875,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>1520</v>
@@ -937,7 +910,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>2019</v>
@@ -972,7 +945,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>1856</v>
@@ -1007,7 +980,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>1919</v>
@@ -1042,7 +1015,7 @@
     </row>
     <row r="17" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>2674</v>
@@ -1077,7 +1050,7 @@
     </row>
     <row r="18" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>3225</v>
@@ -1112,7 +1085,7 @@
     </row>
     <row r="19" spans="1:11" ht="13.1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>561</v>
